--- a/data/trans_orig/P6507-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968AC5D4-A26E-45B0-B41A-EC8253E39BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADAE5DF-579B-4FD8-8793-B7BA901277EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E272E31-6292-4514-8093-A764B3D5ED87}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7729AB76-EF35-4B4C-9D6D-4258FD2D194E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="290">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,9%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>92,4%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -116,781 +116,793 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1305,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF71126-2005-42EA-ADD0-1419C568E031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2C63E3-977D-491F-ABB4-26C8791022C9}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1612,13 +1624,13 @@
         <v>1942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,13 +1645,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1648,13 +1660,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1663,18 +1675,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1686,13 +1698,13 @@
         <v>219725</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>120</v>
@@ -1701,13 +1713,13 @@
         <v>120730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>323</v>
@@ -1716,13 +1728,13 @@
         <v>340455</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1749,13 @@
         <v>29707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1752,13 +1764,13 @@
         <v>8058</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -1767,13 +1779,13 @@
         <v>37765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1800,13 @@
         <v>15958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1803,13 +1815,13 @@
         <v>976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -1818,10 +1830,10 @@
         <v>16934</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>69</v>
@@ -1890,13 +1902,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1905,13 +1917,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -1920,13 +1932,13 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2159,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2162,13 +2174,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2177,13 +2189,13 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2416,13 @@
         <v>223544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2419,13 +2431,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -2434,13 +2446,13 @@
         <v>359629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2475,7 @@
         <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -2475,10 +2487,10 @@
         <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -2487,13 +2499,13 @@
         <v>149928</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2520,13 @@
         <v>6403</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2529,7 +2541,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2538,13 +2550,13 @@
         <v>6403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2592,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2631,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2661,13 +2673,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2676,13 +2688,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2691,13 +2703,13 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2780,10 @@
         <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2786,7 +2798,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2795,13 +2807,13 @@
         <v>9877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2828,13 @@
         <v>11916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2831,13 +2843,13 @@
         <v>1035</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -2846,13 +2858,13 @@
         <v>12951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2879,13 @@
         <v>2022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2888,7 +2900,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2897,13 +2909,13 @@
         <v>2022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2930,13 @@
         <v>155102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -2933,13 +2945,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M33" s="7">
         <v>229</v>
@@ -2948,18 +2960,18 @@
         <v>237920</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2971,13 +2983,13 @@
         <v>280242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -2986,13 +2998,13 @@
         <v>169798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>421</v>
@@ -3001,13 +3013,13 @@
         <v>450040</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3034,13 @@
         <v>28033</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3037,13 +3049,13 @@
         <v>4508</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -3052,13 +3064,13 @@
         <v>32541</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3085,13 @@
         <v>15466</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3088,13 +3100,13 @@
         <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3103,13 +3115,13 @@
         <v>17339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3136,13 @@
         <v>11186</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3139,13 +3151,13 @@
         <v>3438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3154,13 +3166,13 @@
         <v>14624</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3187,13 @@
         <v>334928</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3190,13 +3202,13 @@
         <v>179616</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M38" s="7">
         <v>483</v>
@@ -3205,18 +3217,18 @@
         <v>514544</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3228,13 +3240,13 @@
         <v>391313</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H39" s="7">
         <v>211</v>
@@ -3243,13 +3255,13 @@
         <v>221552</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M39" s="7">
         <v>586</v>
@@ -3258,13 +3270,13 @@
         <v>612865</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3291,13 @@
         <v>41451</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3294,13 +3306,13 @@
         <v>10161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>53</v>
@@ -3309,13 +3321,13 @@
         <v>51611</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3342,13 @@
         <v>25075</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3348,10 +3360,10 @@
         <v>123</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3360,13 +3372,13 @@
         <v>30392</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3393,13 @@
         <v>9327</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3402,7 +3414,7 @@
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -3411,13 +3423,13 @@
         <v>9327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3444,13 @@
         <v>467165</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3447,13 +3459,13 @@
         <v>237029</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M43" s="7">
         <v>680</v>
@@ -3462,13 +3474,13 @@
         <v>704194</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3497,13 @@
         <v>1600710</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H44" s="7">
         <v>932</v>
@@ -3500,13 +3512,13 @@
         <v>973497</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M44" s="7">
         <v>2456</v>
@@ -3515,13 +3527,13 @@
         <v>2574208</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3548,13 @@
         <v>162522</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -3551,13 +3563,13 @@
         <v>29934</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7">
         <v>187</v>
@@ -3566,13 +3578,13 @@
         <v>192457</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3599,13 @@
         <v>104049</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -3605,10 +3617,10 @@
         <v>137</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="M46" s="7">
         <v>117</v>
@@ -3617,13 +3629,13 @@
         <v>118290</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3650,13 @@
         <v>37217</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3653,13 +3665,13 @@
         <v>5683</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M47" s="7">
         <v>42</v>
@@ -3668,13 +3680,13 @@
         <v>42900</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3701,13 @@
         <v>1904499</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H48" s="7">
         <v>979</v>
@@ -3704,13 +3716,13 @@
         <v>1023355</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M48" s="7">
         <v>2802</v>
@@ -3719,18 +3731,18 @@
         <v>2927854</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADAE5DF-579B-4FD8-8793-B7BA901277EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ADC84FB-E097-4E0B-9590-5CFBF89A95F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7729AB76-EF35-4B4C-9D6D-4258FD2D194E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61A8510D-F5CB-48EF-A203-42E4DAFB1E45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="284">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>92,4%</t>
   </si>
   <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -116,793 +116,775 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1317,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2C63E3-977D-491F-ABB4-26C8791022C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941098B-4904-40DE-8299-AEA33EB9F29C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,10 +1734,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1764,13 +1746,13 @@
         <v>8058</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -1779,13 +1761,13 @@
         <v>37765</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1782,13 @@
         <v>15958</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1815,13 +1797,13 @@
         <v>976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -1830,10 +1812,10 @@
         <v>16934</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>69</v>
@@ -2138,13 +2120,13 @@
         <v>1069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2194,13 @@
         <v>192495</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2227,13 +2209,13 @@
         <v>129837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>318</v>
@@ -2242,13 +2224,13 @@
         <v>322332</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2245,13 @@
         <v>15332</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2278,13 +2260,13 @@
         <v>3051</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2293,13 +2275,13 @@
         <v>18382</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2296,13 @@
         <v>12600</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2329,13 +2311,13 @@
         <v>2020</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -2344,13 +2326,13 @@
         <v>14620</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2347,13 @@
         <v>3116</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2380,13 +2362,13 @@
         <v>1178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2395,13 +2377,13 @@
         <v>4294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2439,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2469,13 +2451,13 @@
         <v>99502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -2487,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>43</v>
@@ -2499,13 +2481,13 @@
         <v>149928</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2502,13 @@
         <v>6403</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2541,7 +2523,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2550,13 +2532,13 @@
         <v>6403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2553,13 @@
         <v>2808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2592,7 +2574,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2601,13 +2583,13 @@
         <v>2808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2604,13 @@
         <v>3464</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2643,7 +2625,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2655,10 +2637,10 @@
         <v>91</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,7 +2696,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2726,13 +2708,13 @@
         <v>131287</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -2741,10 +2723,10 @@
         <v>81782</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>16</v>
@@ -2756,13 +2738,13 @@
         <v>213070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2759,13 @@
         <v>9877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2798,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2807,13 +2789,13 @@
         <v>9877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2810,13 @@
         <v>11916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2843,13 +2825,13 @@
         <v>1035</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -2858,13 +2840,13 @@
         <v>12951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2861,13 @@
         <v>2022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2900,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2909,13 +2891,13 @@
         <v>2022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2953,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2983,13 +2965,13 @@
         <v>280242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -2998,13 +2980,13 @@
         <v>169798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>421</v>
@@ -3013,13 +2995,13 @@
         <v>450040</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3016,13 @@
         <v>28033</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3049,13 +3031,13 @@
         <v>4508</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -3064,13 +3046,13 @@
         <v>32541</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3067,13 @@
         <v>15466</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3100,13 +3082,13 @@
         <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3115,13 +3097,13 @@
         <v>17339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3118,13 @@
         <v>11186</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3151,13 +3133,13 @@
         <v>3438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3166,13 +3148,13 @@
         <v>14624</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3210,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3240,13 +3222,13 @@
         <v>391313</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H39" s="7">
         <v>211</v>
@@ -3255,13 +3237,13 @@
         <v>221552</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M39" s="7">
         <v>586</v>
@@ -3270,13 +3252,13 @@
         <v>612865</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3273,13 @@
         <v>41451</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3306,13 +3288,13 @@
         <v>10161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>242</v>
+        <v>91</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M40" s="7">
         <v>53</v>
@@ -3321,13 +3303,13 @@
         <v>51611</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3324,13 @@
         <v>25075</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>248</v>
+        <v>127</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3357,13 +3339,13 @@
         <v>5317</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3372,13 +3354,13 @@
         <v>30392</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3375,13 @@
         <v>9327</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3414,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -3423,13 +3405,13 @@
         <v>9327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3479,13 @@
         <v>1600710</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H44" s="7">
         <v>932</v>
@@ -3512,13 +3494,13 @@
         <v>973497</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
         <v>2456</v>
@@ -3527,13 +3509,13 @@
         <v>2574208</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3530,13 @@
         <v>162522</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -3563,13 +3545,13 @@
         <v>29934</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="M45" s="7">
         <v>187</v>
@@ -3578,13 +3560,13 @@
         <v>192457</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3581,13 @@
         <v>104049</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -3614,13 +3596,13 @@
         <v>14240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M46" s="7">
         <v>117</v>
@@ -3629,13 +3611,13 @@
         <v>118290</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3632,13 @@
         <v>37217</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3665,13 +3647,13 @@
         <v>5683</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M47" s="7">
         <v>42</v>
@@ -3680,13 +3662,13 @@
         <v>42900</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3724,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ADC84FB-E097-4E0B-9590-5CFBF89A95F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C3794E-B462-4C3B-8207-6848948096C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61A8510D-F5CB-48EF-A203-42E4DAFB1E45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{475713DA-90B2-46DB-8D40-0D65CD12244A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="286">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,32%</t>
+    <t>93,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>92,4%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,748 +134,754 @@
     <t>3,48%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -884,7 +890,7 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941098B-4904-40DE-8299-AEA33EB9F29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E93D5FF-AF69-4BCF-8321-26BAD5D7C7C8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,13 +1612,13 @@
         <v>1942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1633,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>99</v>
@@ -1642,13 +1648,13 @@
         <v>111984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>257</v>
@@ -1657,18 +1663,18 @@
         <v>277383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1680,13 +1686,13 @@
         <v>219725</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>120</v>
@@ -1695,13 +1701,13 @@
         <v>120730</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>323</v>
@@ -1710,13 +1716,13 @@
         <v>340455</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,10 +1737,10 @@
         <v>29707</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -1884,13 +1890,13 @@
         <v>270481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1899,13 +1905,13 @@
         <v>130831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
@@ -1914,13 +1920,13 @@
         <v>401312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2126,13 @@
         <v>1069</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2147,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2156,13 +2162,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2171,18 +2177,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2194,13 +2200,13 @@
         <v>192495</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2209,13 +2215,13 @@
         <v>129837</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>318</v>
@@ -2224,13 +2230,13 @@
         <v>322332</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2251,13 @@
         <v>15332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2260,13 +2266,13 @@
         <v>3051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2275,13 +2281,13 @@
         <v>18382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,13 +2302,13 @@
         <v>12600</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2311,13 +2317,13 @@
         <v>2020</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -2326,13 +2332,13 @@
         <v>14620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2353,13 @@
         <v>3116</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2362,13 +2368,13 @@
         <v>1178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2377,13 +2383,13 @@
         <v>4294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2404,13 @@
         <v>223544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2413,13 +2419,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>356</v>
@@ -2428,18 +2434,18 @@
         <v>359629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2457,13 @@
         <v>99502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>47</v>
@@ -2469,10 +2475,10 @@
         <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -2481,13 +2487,13 @@
         <v>149928</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2508,13 @@
         <v>6403</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2523,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2532,13 +2538,13 @@
         <v>6403</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2559,13 @@
         <v>2808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2574,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2583,13 +2589,13 @@
         <v>2808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2610,13 @@
         <v>3464</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2625,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2637,10 +2643,10 @@
         <v>91</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2661,13 @@
         <v>112177</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2670,13 +2676,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M28" s="7">
         <v>157</v>
@@ -2685,18 +2691,18 @@
         <v>162603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2708,13 +2714,13 @@
         <v>131287</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -2723,10 +2729,10 @@
         <v>81782</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>16</v>
@@ -2738,13 +2744,13 @@
         <v>213070</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2765,13 @@
         <v>9877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2780,7 +2786,7 @@
         <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -2789,13 +2795,13 @@
         <v>9877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2816,13 @@
         <v>11916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2825,13 +2831,13 @@
         <v>1035</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -2840,13 +2846,13 @@
         <v>12951</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2867,13 @@
         <v>2022</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2882,7 +2888,7 @@
         <v>34</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2891,13 +2897,13 @@
         <v>2022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2918,13 @@
         <v>155102</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -2927,13 +2933,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
         <v>229</v>
@@ -2942,18 +2948,18 @@
         <v>237920</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2965,13 +2971,13 @@
         <v>280242</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>158</v>
@@ -2980,13 +2986,13 @@
         <v>169798</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>421</v>
@@ -2995,13 +3001,13 @@
         <v>450040</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3022,13 @@
         <v>28033</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3031,13 +3037,13 @@
         <v>4508</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -3046,13 +3052,13 @@
         <v>32541</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3073,13 @@
         <v>15466</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3082,13 +3088,13 @@
         <v>1872</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3097,13 +3103,13 @@
         <v>17339</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>11186</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3133,13 +3139,13 @@
         <v>3438</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -3148,13 +3154,13 @@
         <v>14624</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3175,13 @@
         <v>334928</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3184,13 +3190,13 @@
         <v>179616</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M38" s="7">
         <v>483</v>
@@ -3199,18 +3205,18 @@
         <v>514544</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3222,13 +3228,13 @@
         <v>391313</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H39" s="7">
         <v>211</v>
@@ -3237,13 +3243,13 @@
         <v>221552</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M39" s="7">
         <v>586</v>
@@ -3252,13 +3258,13 @@
         <v>612865</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3279,13 @@
         <v>41451</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3288,13 +3294,13 @@
         <v>10161</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>53</v>
@@ -3303,13 +3309,13 @@
         <v>51611</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3330,13 @@
         <v>25075</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3339,13 +3345,13 @@
         <v>5317</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>31</v>
@@ -3354,13 +3360,13 @@
         <v>30392</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3381,13 @@
         <v>9327</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3396,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M42" s="7">
         <v>10</v>
@@ -3405,13 +3411,13 @@
         <v>9327</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>467165</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" s="7">
         <v>226</v>
@@ -3441,13 +3447,13 @@
         <v>237029</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M43" s="7">
         <v>680</v>
@@ -3456,13 +3462,13 @@
         <v>704194</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3485,13 @@
         <v>1600710</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
         <v>932</v>
@@ -3494,13 +3500,13 @@
         <v>973497</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M44" s="7">
         <v>2456</v>
@@ -3509,13 +3515,13 @@
         <v>2574208</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3536,13 @@
         <v>162522</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -3545,13 +3551,13 @@
         <v>29934</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M45" s="7">
         <v>187</v>
@@ -3560,13 +3566,13 @@
         <v>192457</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3587,13 @@
         <v>104049</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -3596,13 +3602,13 @@
         <v>14240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M46" s="7">
         <v>117</v>
@@ -3611,13 +3617,13 @@
         <v>118290</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3638,13 @@
         <v>37217</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3647,13 +3653,13 @@
         <v>5683</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M47" s="7">
         <v>42</v>
@@ -3662,13 +3668,13 @@
         <v>42900</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3689,13 @@
         <v>1904499</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" s="7">
         <v>979</v>
@@ -3698,13 +3704,13 @@
         <v>1023355</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M48" s="7">
         <v>2802</v>
@@ -3713,18 +3719,18 @@
         <v>2927854</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C3794E-B462-4C3B-8207-6848948096C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51221EE-C745-4825-BBFA-32E4F5886585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{475713DA-90B2-46DB-8D40-0D65CD12244A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6076F3BC-D643-4B23-87D5-5198967705EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E93D5FF-AF69-4BCF-8321-26BAD5D7C7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4E7306-BFC3-4476-AD0F-CB564FBAEB28}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
